--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.0273567890331057</v>
+        <v>5.0273567667470198</v>
       </c>
       <c r="C2">
-        <v>7.8825616247357466</v>
+        <v>7.8825616204281204</v>
       </c>
       <c r="D2">
-        <v>-0.61017315659625737</v>
+        <v>-0.61017317421472206</v>
       </c>
       <c r="E2">
-        <v>8.4590954626261201</v>
+        <v>8.459095445053002</v>
       </c>
       <c r="F2">
-        <v>-15.437304205730943</v>
+        <v>-15.437304208850872</v>
       </c>
       <c r="G2">
-        <v>11.746525980180628</v>
+        <v>11.746525971877848</v>
       </c>
       <c r="H2">
-        <v>8.1810713123660133</v>
+        <v>8.1810712945778441</v>
       </c>
       <c r="I2">
-        <v>8.7230004112418911</v>
+        <v>8.723000401741162</v>
       </c>
       <c r="J2">
-        <v>13.253847940427619</v>
+        <v>13.253847931447782</v>
       </c>
       <c r="K2">
-        <v>9.3535438606853969</v>
+        <v>9.3535438542686027</v>
       </c>
       <c r="L2">
-        <v>16.664645308525337</v>
+        <v>16.664645283002251</v>
       </c>
       <c r="M2">
-        <v>5.8332337720666825</v>
+        <v>5.8332337551102169</v>
       </c>
       <c r="N2">
-        <v>11.831429322868878</v>
+        <v>11.831429299202105</v>
       </c>
       <c r="O2">
-        <v>9.4573509430785734</v>
+        <v>9.4573509285710102</v>
       </c>
       <c r="P2">
-        <v>5.6945325509661258</v>
+        <v>5.694532547934644</v>
       </c>
       <c r="Q2">
-        <v>9.6613742493240213</v>
+        <v>9.6613742448196174</v>
       </c>
       <c r="R2">
-        <v>5.5912823991948395</v>
+        <v>5.5912823976564896</v>
       </c>
       <c r="S2">
-        <v>8.373552074743742</v>
+        <v>8.3735520664361118</v>
       </c>
       <c r="T2">
-        <v>8.9957772646782779</v>
+        <v>8.9957772477275775</v>
       </c>
       <c r="U2">
-        <v>17.24671666961795</v>
+        <v>17.246716659761898</v>
       </c>
       <c r="V2">
-        <v>7.0271188238739901</v>
+        <v>7.0271188208367228</v>
       </c>
       <c r="W2">
-        <v>7.6778578933603736</v>
+        <v>7.6778578760372573</v>
       </c>
       <c r="X2">
-        <v>12.027597977496713</v>
+        <v>12.027597969458331</v>
       </c>
       <c r="Y2">
-        <v>10.655965007090346</v>
+        <v>10.655964996057737</v>
       </c>
       <c r="Z2">
-        <v>-0.84251894635329272</v>
+        <v>-0.84251895431378365</v>
       </c>
       <c r="AA2">
-        <v>16.185374523625367</v>
+        <v>16.185374493085977</v>
       </c>
       <c r="AB2">
-        <v>9.8006721183746937</v>
+        <v>9.800672114906682</v>
       </c>
       <c r="AC2">
-        <v>11.69833856897351</v>
+        <v>11.698338573034945</v>
       </c>
       <c r="AD2">
-        <v>7.6088816599700113</v>
+        <v>7.6088816572290234</v>
       </c>
       <c r="AE2">
-        <v>-0.62038717360270956</v>
+        <v>-0.62038718429865991</v>
       </c>
       <c r="AF2">
-        <v>9.3422646335393598</v>
+        <v>9.3422646307041326</v>
       </c>
       <c r="AG2">
-        <v>12.139322214705164</v>
+        <v>12.139322196181885</v>
       </c>
       <c r="AH2">
-        <v>7.1718668253772737</v>
+        <v>7.1718668187965022</v>
       </c>
       <c r="AI2">
-        <v>19.526133384379321</v>
+        <v>19.526133372408829</v>
       </c>
       <c r="AJ2">
-        <v>7.5951912941386812</v>
+        <v>7.5951912681580858</v>
       </c>
       <c r="AK2">
-        <v>13.418095735443442</v>
+        <v>13.41809571479032</v>
       </c>
       <c r="AL2">
-        <v>10.885028194060348</v>
+        <v>10.885028180062974</v>
       </c>
       <c r="AM2">
-        <v>9.4119553851613116</v>
+        <v>9.4119553584242457</v>
       </c>
       <c r="AN2">
-        <v>9.8323827133995376</v>
+        <v>9.8323826923722866</v>
       </c>
       <c r="AO2">
-        <v>9.4612358961260927</v>
+        <v>9.4612358850847684</v>
       </c>
       <c r="AP2">
-        <v>8.5605669427272186</v>
+        <v>8.5605669405490499</v>
       </c>
       <c r="AQ2">
-        <v>8.3264318715172791</v>
+        <v>8.3264318635074535</v>
       </c>
       <c r="AR2">
-        <v>10.194143503589428</v>
+        <v>10.194143495540569</v>
       </c>
       <c r="AS2">
-        <v>11.607062915350044</v>
+        <v>11.60706290951034</v>
       </c>
       <c r="AT2">
-        <v>12.261111347236389</v>
+        <v>12.261111338563859</v>
       </c>
       <c r="AU2">
-        <v>9.0166627232870411</v>
+        <v>9.0166627223411506</v>
       </c>
       <c r="AV2">
-        <v>5.4608093029449005</v>
+        <v>5.4608092900023326</v>
       </c>
       <c r="AW2">
-        <v>10.103681128800737</v>
+        <v>10.103681117099878</v>
       </c>
       <c r="AX2">
-        <v>11.307032248107447</v>
+        <v>11.307032229805408</v>
       </c>
       <c r="AY2">
-        <v>13.701434303770082</v>
+        <v>13.701434293580208</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.3053422509499244</v>
+        <v>7.3053422491025781</v>
       </c>
       <c r="C3">
-        <v>10.089235417923783</v>
+        <v>10.089235401193129</v>
       </c>
       <c r="D3">
-        <v>15.953812615781374</v>
+        <v>15.953812602990036</v>
       </c>
       <c r="E3">
-        <v>7.4164581559887948</v>
+        <v>7.4164581471037714</v>
       </c>
       <c r="F3">
-        <v>4.6269746495179058</v>
+        <v>4.626974643204167</v>
       </c>
       <c r="G3">
-        <v>10.306392711337448</v>
+        <v>10.306392698740718</v>
       </c>
       <c r="H3">
-        <v>12.676955598563991</v>
+        <v>12.676955573907057</v>
       </c>
       <c r="I3">
-        <v>8.5082280527118126</v>
+        <v>8.5082280488294266</v>
       </c>
       <c r="J3">
-        <v>13.02579577540333</v>
+        <v>13.02579576264417</v>
       </c>
       <c r="K3">
-        <v>12.488040004939329</v>
+        <v>12.488039993677827</v>
       </c>
       <c r="L3">
-        <v>26.138800786654471</v>
+        <v>26.138800764198816</v>
       </c>
       <c r="M3">
-        <v>6.541449908837488</v>
+        <v>6.5414362284918619</v>
       </c>
       <c r="N3">
-        <v>9.1883068479806607</v>
+        <v>9.1883068320044767</v>
       </c>
       <c r="O3">
-        <v>5.713229223691509</v>
+        <v>5.7132292175159396</v>
       </c>
       <c r="P3">
-        <v>10.294648216207317</v>
+        <v>10.294648197680287</v>
       </c>
       <c r="Q3">
-        <v>5.5206505754482844</v>
+        <v>5.520650571144353</v>
       </c>
       <c r="R3">
-        <v>7.6542646841438691</v>
+        <v>7.6542646725414238</v>
       </c>
       <c r="S3">
-        <v>7.2493783486037371</v>
+        <v>7.2493783434252235</v>
       </c>
       <c r="T3">
-        <v>9.2573456930776263</v>
+        <v>9.2573456796713689</v>
       </c>
       <c r="U3">
-        <v>9.5795535970636223</v>
+        <v>9.5795535852079183</v>
       </c>
       <c r="V3">
-        <v>15.143795303397734</v>
+        <v>15.143795300271615</v>
       </c>
       <c r="W3">
-        <v>9.0390999556429765</v>
+        <v>9.0390999375673466</v>
       </c>
       <c r="X3">
-        <v>8.1204263066437345</v>
+        <v>8.1204263036496585</v>
       </c>
       <c r="Y3">
-        <v>7.5567912531231087</v>
+        <v>7.5567912450480597</v>
       </c>
       <c r="Z3">
-        <v>7.0442529420283257</v>
+        <v>7.0442529365638329</v>
       </c>
       <c r="AA3">
-        <v>13.265598652331054</v>
+        <v>13.265598637569012</v>
       </c>
       <c r="AB3">
-        <v>9.6058435549019521</v>
+        <v>9.6058435522043428</v>
       </c>
       <c r="AC3">
-        <v>16.910320097389977</v>
+        <v>16.910320084443896</v>
       </c>
       <c r="AD3">
-        <v>10.534328143722433</v>
+        <v>10.534328125196426</v>
       </c>
       <c r="AE3">
-        <v>10.192969400140957</v>
+        <v>10.192969397701884</v>
       </c>
       <c r="AF3">
-        <v>12.250403370499514</v>
+        <v>12.250403361640801</v>
       </c>
       <c r="AG3">
-        <v>16.769067498592612</v>
+        <v>16.769067478493341</v>
       </c>
       <c r="AH3">
-        <v>12.559707763355382</v>
+        <v>12.559707766636343</v>
       </c>
       <c r="AI3">
-        <v>13.642185243283125</v>
+        <v>13.642185227291831</v>
       </c>
       <c r="AJ3">
-        <v>16.932713252008355</v>
+        <v>16.932713219321631</v>
       </c>
       <c r="AK3">
-        <v>27.180586668378016</v>
+        <v>27.180586645615364</v>
       </c>
       <c r="AL3">
-        <v>11.722336514906477</v>
+        <v>11.722336502908322</v>
       </c>
       <c r="AM3">
-        <v>8.0535971462710982</v>
+        <v>8.0535971267611668</v>
       </c>
       <c r="AN3">
-        <v>6.6232059143853244</v>
+        <v>6.623205897705116</v>
       </c>
       <c r="AO3">
-        <v>12.254954976885717</v>
+        <v>12.254954965596147</v>
       </c>
       <c r="AP3">
-        <v>7.8408819970094399</v>
+        <v>7.8408819874113771</v>
       </c>
       <c r="AQ3">
-        <v>8.4789740359632724</v>
+        <v>8.478974023550446</v>
       </c>
       <c r="AR3">
-        <v>10.887765239987509</v>
+        <v>10.887765234190006</v>
       </c>
       <c r="AS3">
-        <v>9.6078767426107738</v>
+        <v>9.6078767335820814</v>
       </c>
       <c r="AT3">
-        <v>8.7766272472624287</v>
+        <v>8.7766272361407918</v>
       </c>
       <c r="AU3">
-        <v>11.374134956582635</v>
+        <v>11.37413494407142</v>
       </c>
       <c r="AV3">
-        <v>12.021474583424562</v>
+        <v>12.021474538163233</v>
       </c>
       <c r="AW3">
-        <v>10.313438423717816</v>
+        <v>10.313438391102011</v>
       </c>
       <c r="AX3">
-        <v>10.135872350363533</v>
+        <v>10.135872337599519</v>
       </c>
       <c r="AY3">
-        <v>9.107657080481113</v>
+        <v>9.1076570674232098</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.0273567667470198</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.8825616204281204</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.61017317421472206</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.459095445053002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.437304208850872</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.746525971877848</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.1810712945778441</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.723000401741162</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.253847931447782</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.3535438542686027</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16.664645283002251</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.8332337551102169</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.831429299202105</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.4573509285710102</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.694532547934644</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.6613742448196174</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.5912823976564896</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.3735520664361118</v>
+        <v>8.3735654133771327</v>
       </c>
       <c r="T2">
         <v>8.9957772477275775</v>
@@ -576,147 +465,144 @@
         <v>7.0271188208367228</v>
       </c>
       <c r="W2">
-        <v>7.6778578760372573</v>
+        <v>7.6778705369275304</v>
       </c>
       <c r="X2">
-        <v>12.027597969458331</v>
+        <v>12.02758227229565</v>
       </c>
       <c r="Y2">
         <v>10.655964996057737</v>
       </c>
       <c r="Z2">
-        <v>-0.84251895431378365</v>
+        <v>-0.84253359055961974</v>
       </c>
       <c r="AA2">
-        <v>16.185374493085977</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>9.800672114906682</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.698338573034945</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.6088816572290234</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-0.62038718429865991</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.3422646307041326</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.139322196181885</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.1718668187965022</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.526133372408829</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.5951912681580858</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.41809571479032</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>10.885028180062974</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>9.4119553584242457</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.8323826923722866</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.4612358850847684</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.5605669405490499</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.3264318635074535</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.194143495540569</v>
+        <v>10.194129780585152</v>
       </c>
       <c r="AS2">
         <v>11.60706290951034</v>
       </c>
       <c r="AT2">
-        <v>12.261111338563859</v>
+        <v>12.261129042177419</v>
       </c>
       <c r="AU2">
-        <v>9.0166627223411506</v>
+        <v>9.0166493889788715</v>
       </c>
       <c r="AV2">
-        <v>5.4608092900023326</v>
+        <v>5.4608218394048187</v>
       </c>
       <c r="AW2">
-        <v>10.103681117099878</v>
+        <v>10.103665789255603</v>
       </c>
       <c r="AX2">
-        <v>11.307032229805408</v>
+        <v>11.30701615041494</v>
       </c>
       <c r="AY2">
-        <v>13.701434293580208</v>
+        <v>13.701416776902347</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>7.3053422491025781</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.089235401193129</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.953812602990036</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.4164581471037714</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.626974643204167</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.306392698740718</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>12.676955573907057</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.5082280488294266</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.02579576264417</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.488039993677827</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>26.138800764198816</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.5414362284918619</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.1883068320044767</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.7132292175159396</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10.294648197680287</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.520650571144353</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.6542646725414238</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.2493783434252235</v>
@@ -728,94 +614,94 @@
         <v>9.5795535852079183</v>
       </c>
       <c r="V3">
-        <v>15.143795300271615</v>
+        <v>15.143780692394316</v>
       </c>
       <c r="W3">
-        <v>9.0390999375673466</v>
+        <v>9.0390849162717917</v>
       </c>
       <c r="X3">
-        <v>8.1204263036496585</v>
+        <v>8.1204408251058133</v>
       </c>
       <c r="Y3">
-        <v>7.5567912450480597</v>
+        <v>21.061910439167114</v>
       </c>
       <c r="Z3">
-        <v>7.0442529365638329</v>
+        <v>9.5041248185584877</v>
       </c>
       <c r="AA3">
-        <v>13.265598637569012</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>9.6058435522043428</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.910320084443896</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>10.534328125196426</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>10.192969397701884</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.250403361640801</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>16.769067478493341</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>12.559707766636343</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>13.642185227291831</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>16.932713219321631</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>27.180586645615364</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.722336502908322</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.0535971267611668</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.623205897705116</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>12.254954965596147</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.8408819874113771</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.478974023550446</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>10.887765234190006</v>
+        <v>10.887779015355568</v>
       </c>
       <c r="AS3">
-        <v>9.6078767335820814</v>
+        <v>9.6078623074288583</v>
       </c>
       <c r="AT3">
         <v>8.7766272361407918</v>
       </c>
       <c r="AU3">
-        <v>11.37413494407142</v>
+        <v>11.37412126005241</v>
       </c>
       <c r="AV3">
-        <v>12.021474538163233</v>
+        <v>12.021458884881248</v>
       </c>
       <c r="AW3">
         <v>10.313438391102011</v>
       </c>
       <c r="AX3">
-        <v>10.135872337599519</v>
+        <v>12.183660058452922</v>
       </c>
       <c r="AY3">
-        <v>9.1076570674232098</v>
+        <v>32.410668777705268</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.027370281874644</v>
+        <v>9.4573355776025316</v>
       </c>
       <c r="C2">
-        <v>10.723920740737308</v>
+        <v>5.5912823976564896</v>
       </c>
       <c r="D2">
-        <v>-0.61018999437298405</v>
+        <v>9.8323984339473682</v>
       </c>
       <c r="E2">
-        <v>8.4591100528382004</v>
+        <v>8.3264446056587449</v>
       </c>
       <c r="F2">
         <v>-15.437304205730943</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.3053422509499244</v>
+        <v>5.7132292175159396</v>
       </c>
       <c r="C3">
-        <v>13.879964345370139</v>
+        <v>7.6542774238505444</v>
       </c>
       <c r="D3">
-        <v>15.953833120439983</v>
+        <v>6.6232210289869027</v>
       </c>
       <c r="E3">
-        <v>7.4164433382761619</v>
+        <v>8.4670984845031541</v>
       </c>
       <c r="F3">
         <v>4.6269746495179058</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.027370281874644</v>
+        <v>3.9638822351134952</v>
       </c>
       <c r="C2">
-        <v>10.723920740737308</v>
+        <v>9.4573355776025316</v>
       </c>
       <c r="D2">
-        <v>-0.61018999437298405</v>
+        <v>11.198267481312284</v>
       </c>
       <c r="E2">
-        <v>8.4591100528382004</v>
+        <v>9.8323984339473682</v>
       </c>
       <c r="F2">
         <v>-15.437304205730943</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.3053422509499244</v>
+        <v>3.108782405754853</v>
       </c>
       <c r="C3">
-        <v>13.879964345370139</v>
+        <v>5.7132292175159396</v>
       </c>
       <c r="D3">
-        <v>15.953833120439983</v>
+        <v>15.002643271719867</v>
       </c>
       <c r="E3">
-        <v>7.4164433382761619</v>
+        <v>6.6232210289869027</v>
       </c>
       <c r="F3">
         <v>4.6269746495179058</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.0273702595885554</v>
+      </c>
+      <c r="C2">
+        <v>10.723920736316229</v>
+      </c>
+      <c r="D2">
+        <v>-0.61019001199144585</v>
+      </c>
+      <c r="E2">
+        <v>8.4591100352650805</v>
+      </c>
+      <c r="F2">
+        <v>-15.437304208850872</v>
+      </c>
+      <c r="G2">
+        <v>11.746541169252213</v>
+      </c>
+      <c r="H2">
+        <v>8.1810712945778441</v>
+      </c>
+      <c r="I2">
+        <v>8.7229873009865297</v>
+      </c>
+      <c r="J2">
+        <v>13.253865811505708</v>
+      </c>
+      <c r="K2">
+        <v>20.436702669215283</v>
+      </c>
+      <c r="L2">
+        <v>16.664664973681919</v>
+      </c>
+      <c r="M2">
+        <v>5.8332337551102169</v>
+      </c>
+      <c r="N2">
         <v>3.9638822351134952</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>9.4573355776025316</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.694532547934644</v>
+      </c>
+      <c r="Q2">
+        <v>19.824788494016804</v>
+      </c>
+      <c r="R2">
+        <v>5.5912823976564896</v>
+      </c>
+      <c r="S2">
+        <v>8.3735654133771327</v>
+      </c>
+      <c r="T2">
+        <v>8.9957772477275775</v>
+      </c>
+      <c r="U2">
+        <v>17.246716659761898</v>
+      </c>
+      <c r="V2">
+        <v>7.0271188208367228</v>
+      </c>
+      <c r="W2">
+        <v>7.6778705369275304</v>
+      </c>
+      <c r="X2">
+        <v>12.02758227229565</v>
+      </c>
+      <c r="Y2">
+        <v>10.655964996057737</v>
+      </c>
+      <c r="Z2">
+        <v>-0.84253359055961974</v>
+      </c>
+      <c r="AA2">
+        <v>16.185389771766218</v>
+      </c>
+      <c r="AB2">
+        <v>5.7256778673052979</v>
+      </c>
+      <c r="AC2">
+        <v>11.698319763824431</v>
+      </c>
+      <c r="AD2">
+        <v>7.6088673228339845</v>
+      </c>
+      <c r="AE2">
+        <v>-0.62038718429865991</v>
+      </c>
+      <c r="AF2">
+        <v>9.3422500137411078</v>
+      </c>
+      <c r="AG2">
+        <v>12.139340085096894</v>
+      </c>
+      <c r="AH2">
+        <v>7.1718539189121868</v>
+      </c>
+      <c r="AI2">
+        <v>19.526133372408829</v>
+      </c>
+      <c r="AJ2">
+        <v>8.4505583995152413</v>
+      </c>
+      <c r="AK2">
+        <v>13.41809571479032</v>
+      </c>
+      <c r="AL2">
+        <v>10.885014262008562</v>
+      </c>
+      <c r="AM2">
         <v>11.198267481312284</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>9.8323984339473682</v>
       </c>
-      <c r="F2">
-        <v>-15.437304205730943</v>
-      </c>
-      <c r="G2">
-        <v>11.746541177554993</v>
-      </c>
-      <c r="H2">
-        <v>8.1810713123660133</v>
-      </c>
-      <c r="I2">
-        <v>8.7229873104872571</v>
-      </c>
-      <c r="J2">
-        <v>13.253865820485544</v>
-      </c>
-      <c r="K2">
-        <v>20.43670267628243</v>
-      </c>
-      <c r="L2">
-        <v>16.664664999205005</v>
-      </c>
-      <c r="M2">
-        <v>5.8332337720666825</v>
-      </c>
-      <c r="N2">
-        <v>3.963882257115269</v>
-      </c>
-      <c r="O2">
-        <v>9.4573355921100948</v>
-      </c>
-      <c r="P2">
-        <v>5.6945325509661258</v>
-      </c>
-      <c r="Q2">
-        <v>19.824788498938677</v>
-      </c>
-      <c r="R2">
-        <v>5.5912823991948395</v>
-      </c>
-      <c r="S2">
-        <v>8.3735654216847664</v>
-      </c>
-      <c r="T2">
-        <v>8.9957772646782779</v>
-      </c>
-      <c r="U2">
-        <v>17.24671666961795</v>
-      </c>
-      <c r="V2">
-        <v>7.0271188238739901</v>
-      </c>
-      <c r="W2">
-        <v>7.6778705542506502</v>
-      </c>
-      <c r="X2">
-        <v>12.027582280334032</v>
-      </c>
-      <c r="Y2">
-        <v>10.655965007090346</v>
-      </c>
-      <c r="Z2">
-        <v>-0.84253358259912992</v>
-      </c>
-      <c r="AA2">
-        <v>16.185389802305608</v>
-      </c>
-      <c r="AB2">
-        <v>5.7256778706446037</v>
-      </c>
-      <c r="AC2">
-        <v>11.698319759762995</v>
-      </c>
-      <c r="AD2">
-        <v>7.6088673255749724</v>
-      </c>
-      <c r="AE2">
-        <v>-0.62038717360270956</v>
-      </c>
-      <c r="AF2">
-        <v>9.3422500165763331</v>
-      </c>
-      <c r="AG2">
-        <v>12.139340103620174</v>
-      </c>
-      <c r="AH2">
-        <v>7.1718539254929592</v>
-      </c>
-      <c r="AI2">
-        <v>19.526133384379321</v>
-      </c>
-      <c r="AJ2">
-        <v>8.4505584257023791</v>
-      </c>
-      <c r="AK2">
-        <v>13.418095735443442</v>
-      </c>
-      <c r="AL2">
-        <v>10.885014276005936</v>
-      </c>
-      <c r="AM2">
-        <v>11.198267508485872</v>
-      </c>
-      <c r="AN2">
-        <v>9.8323984549746228</v>
-      </c>
       <c r="AO2">
-        <v>9.4612219806031597</v>
+        <v>9.4612219695618371</v>
       </c>
       <c r="AP2">
-        <v>8.5605669427272186</v>
+        <v>8.5605669405490499</v>
       </c>
       <c r="AQ2">
-        <v>8.3264446136685724</v>
+        <v>8.3264446056587449</v>
       </c>
       <c r="AR2">
-        <v>10.194129788634008</v>
+        <v>10.194129780585152</v>
       </c>
       <c r="AS2">
-        <v>11.607062915350044</v>
+        <v>11.60706290951034</v>
       </c>
       <c r="AT2">
-        <v>12.261129050849952</v>
+        <v>12.261129042177419</v>
       </c>
       <c r="AU2">
-        <v>9.0166493899247602</v>
+        <v>9.0166493889788715</v>
       </c>
       <c r="AV2">
-        <v>5.4608218523473866</v>
+        <v>5.4608218394048187</v>
       </c>
       <c r="AW2">
-        <v>10.103665800956461</v>
+        <v>10.103665789255603</v>
       </c>
       <c r="AX2">
-        <v>11.307016168716977</v>
+        <v>11.30701615041494</v>
       </c>
       <c r="AY2">
-        <v>13.701416787092219</v>
+        <v>13.701416776902347</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>7.3053422491025781</v>
+      </c>
+      <c r="C3">
+        <v>13.879964328063393</v>
+      </c>
+      <c r="D3">
+        <v>15.953833107648647</v>
+      </c>
+      <c r="E3">
+        <v>7.4164433293911394</v>
+      </c>
+      <c r="F3">
+        <v>4.626974643204167</v>
+      </c>
+      <c r="G3">
+        <v>10.306377549993995</v>
+      </c>
+      <c r="H3">
+        <v>12.676937077948992</v>
+      </c>
+      <c r="I3">
+        <v>8.5082154198034541</v>
+      </c>
+      <c r="J3">
+        <v>20.272454622435479</v>
+      </c>
+      <c r="K3">
+        <v>12.488039993677827</v>
+      </c>
+      <c r="L3">
+        <v>26.138800764198816</v>
+      </c>
+      <c r="M3">
+        <v>6.5414489360766197</v>
+      </c>
+      <c r="N3">
         <v>3.108782405754853</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.7132292175159396</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>10.294648197680287</v>
+      </c>
+      <c r="Q3">
+        <v>5.5206390438585657</v>
+      </c>
+      <c r="R3">
+        <v>7.6542774238505444</v>
+      </c>
+      <c r="S3">
+        <v>7.2493783434252235</v>
+      </c>
+      <c r="T3">
+        <v>9.2573456796713689</v>
+      </c>
+      <c r="U3">
+        <v>9.5795535852079183</v>
+      </c>
+      <c r="V3">
+        <v>15.143780692394316</v>
+      </c>
+      <c r="W3">
+        <v>9.0390849162717917</v>
+      </c>
+      <c r="X3">
+        <v>8.1204408251058133</v>
+      </c>
+      <c r="Y3">
+        <v>21.061910439167114</v>
+      </c>
+      <c r="Z3">
+        <v>9.5041248185584877</v>
+      </c>
+      <c r="AA3">
+        <v>13.265584467768685</v>
+      </c>
+      <c r="AB3">
+        <v>9.8283569839864082</v>
+      </c>
+      <c r="AC3">
+        <v>16.910340463016922</v>
+      </c>
+      <c r="AD3">
+        <v>10.534312300856378</v>
+      </c>
+      <c r="AE3">
+        <v>10.192953631426256</v>
+      </c>
+      <c r="AF3">
+        <v>12.250403361640801</v>
+      </c>
+      <c r="AG3">
+        <v>16.769067478493341</v>
+      </c>
+      <c r="AH3">
+        <v>12.553927028349907</v>
+      </c>
+      <c r="AI3">
+        <v>15.233501471161912</v>
+      </c>
+      <c r="AJ3">
+        <v>16.932713219321631</v>
+      </c>
+      <c r="AK3">
+        <v>27.18060857123627</v>
+      </c>
+      <c r="AL3">
+        <v>11.722336502908322</v>
+      </c>
+      <c r="AM3">
         <v>15.002643271719867</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.6232210289869027</v>
       </c>
-      <c r="F3">
-        <v>4.6269746495179058</v>
-      </c>
-      <c r="G3">
-        <v>10.306377562590727</v>
-      </c>
-      <c r="H3">
-        <v>12.676937102605923</v>
-      </c>
-      <c r="I3">
-        <v>8.5082154236858401</v>
-      </c>
-      <c r="J3">
-        <v>20.272454636012689</v>
-      </c>
-      <c r="K3">
-        <v>12.488040004939329</v>
-      </c>
-      <c r="L3">
-        <v>26.138800786654471</v>
-      </c>
-      <c r="M3">
-        <v>6.5414626164238765</v>
-      </c>
-      <c r="N3">
-        <v>3.1087824208414956</v>
-      </c>
-      <c r="O3">
-        <v>5.713229223691509</v>
-      </c>
-      <c r="P3">
-        <v>10.294648216207317</v>
-      </c>
-      <c r="Q3">
-        <v>5.5206390481624972</v>
-      </c>
-      <c r="R3">
-        <v>7.6542774354529914</v>
-      </c>
-      <c r="S3">
-        <v>7.2493783486037371</v>
-      </c>
-      <c r="T3">
-        <v>9.2573456930776263</v>
-      </c>
-      <c r="U3">
-        <v>9.5795535970636223</v>
-      </c>
-      <c r="V3">
-        <v>15.143780695520432</v>
-      </c>
-      <c r="W3">
-        <v>9.0390849343474198</v>
-      </c>
-      <c r="X3">
-        <v>8.1204408280998877</v>
-      </c>
-      <c r="Y3">
-        <v>21.061910448256089</v>
-      </c>
-      <c r="Z3">
-        <v>9.504124824148553</v>
-      </c>
-      <c r="AA3">
-        <v>13.265584482530723</v>
-      </c>
-      <c r="AB3">
-        <v>9.828356986689494</v>
-      </c>
-      <c r="AC3">
-        <v>16.910340475963011</v>
-      </c>
-      <c r="AD3">
-        <v>10.53431231938238</v>
-      </c>
-      <c r="AE3">
-        <v>10.192953633865327</v>
-      </c>
-      <c r="AF3">
-        <v>12.250403370499514</v>
-      </c>
-      <c r="AG3">
-        <v>16.769067498592612</v>
-      </c>
-      <c r="AH3">
-        <v>12.553927035222118</v>
-      </c>
-      <c r="AI3">
-        <v>15.233501487377129</v>
-      </c>
-      <c r="AJ3">
-        <v>16.932713252008355</v>
-      </c>
-      <c r="AK3">
-        <v>27.180608593998929</v>
-      </c>
-      <c r="AL3">
-        <v>11.722336514906477</v>
-      </c>
-      <c r="AM3">
-        <v>15.002643292484505</v>
-      </c>
-      <c r="AN3">
-        <v>6.6232210456671128</v>
-      </c>
       <c r="AO3">
-        <v>12.254969419758787</v>
+        <v>12.254969408469215</v>
       </c>
       <c r="AP3">
-        <v>7.8408698965527561</v>
+        <v>7.840869886954696</v>
       </c>
       <c r="AQ3">
-        <v>8.467098497191401</v>
+        <v>8.4670984845031541</v>
       </c>
       <c r="AR3">
-        <v>10.887779021153071</v>
+        <v>10.887779015355568</v>
       </c>
       <c r="AS3">
-        <v>9.6078623164575507</v>
+        <v>9.6078623074288583</v>
       </c>
       <c r="AT3">
-        <v>8.7766272472624287</v>
+        <v>8.7766272361407918</v>
       </c>
       <c r="AU3">
-        <v>11.374121272563626</v>
+        <v>11.37412126005241</v>
       </c>
       <c r="AV3">
-        <v>12.021458930142572</v>
+        <v>12.021458884881248</v>
       </c>
       <c r="AW3">
-        <v>10.313438423717816</v>
+        <v>10.313438391102011</v>
       </c>
       <c r="AX3">
-        <v>12.183660071454259</v>
+        <v>12.183660058452922</v>
       </c>
       <c r="AY3">
-        <v>32.410668793552055</v>
+        <v>32.410668777705268</v>
       </c>
     </row>
   </sheetData>
